--- a/UtilityRates.xlsx
+++ b/UtilityRates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD63C9F0-66B4-4FEA-BE87-4211D1B9BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E383D60-92F6-4EEC-97AF-6D3A7C12A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -102,19 +102,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,647 +399,648 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="16.26953125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>0.125</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>0.25</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>0.375</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>0.5</v>
       </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>0.625</v>
       </c>
-      <c r="B19" s="3">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B21" s="3">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>0.75</v>
       </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>0.875</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>3</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
         <v>10.378</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>2</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3">
         <v>5.8419999999999996</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
         <v>3.4620000000000002</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/UtilityRates.xlsx
+++ b/UtilityRates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E383D60-92F6-4EEC-97AF-6D3A7C12A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D74998-1621-4CAE-AD59-7BAD5B66347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
